--- a/data/LeuT fold list of conformations w LAT1 KCC1 2023.xlsx
+++ b/data/LeuT fold list of conformations w LAT1 KCC1 2023.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Dropbox (Harvard University)/LeuT-fold structure comparisons/Data and working materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/pyDDM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6E1E0-1A4E-5F49-BA76-F40741E56AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596E45A-512F-144B-8960-6971874C4FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="500" windowWidth="24640" windowHeight="16660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1022">
   <si>
     <t>Entry</t>
   </si>
@@ -3106,6 +3111,18 @@
   </si>
   <si>
     <t>7TTI</t>
+  </si>
+  <si>
+    <t>8E6M</t>
+  </si>
+  <si>
+    <t>8e5vA</t>
+  </si>
+  <si>
+    <t>8E5V</t>
+  </si>
+  <si>
+    <t>8e6mA</t>
   </si>
 </sst>
 </file>
@@ -5438,10 +5455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA94FE90-D9C2-8040-B60E-31390BD00B38}">
-  <dimension ref="A1:N306"/>
+  <dimension ref="A1:N308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9417,10 +9434,10 @@
       </c>
       <c r="C136" s="33"/>
       <c r="D136" s="17" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="F136" s="17" t="s">
         <v>811</v>
@@ -9447,19 +9464,19 @@
       </c>
       <c r="C137" s="33"/>
       <c r="D137" s="17" t="s">
-        <v>472</v>
+        <v>1011</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>766</v>
+        <v>1012</v>
       </c>
       <c r="F137" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="G137" s="40" t="s">
-        <v>390</v>
+      <c r="G137" s="44" t="s">
+        <v>387</v>
       </c>
       <c r="H137" s="37" t="s">
-        <v>483</v>
+        <v>1013</v>
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
@@ -9477,13 +9494,13 @@
       </c>
       <c r="C138" s="33"/>
       <c r="D138" s="17" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="E138" s="17" t="s">
         <v>766</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G138" s="40" t="s">
         <v>390</v>
@@ -9507,25 +9524,25 @@
       </c>
       <c r="C139" s="33"/>
       <c r="D139" s="17" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G139" s="40" t="s">
         <v>390</v>
       </c>
       <c r="H139" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I139" s="19"/>
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="19"/>
-      <c r="M139" s="21"/>
+      <c r="M139" s="19"/>
       <c r="N139" s="19"/>
     </row>
     <row r="140" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -9537,19 +9554,19 @@
       </c>
       <c r="C140" s="33"/>
       <c r="D140" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>767</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G140" s="40" t="s">
         <v>390</v>
       </c>
       <c r="H140" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I140" s="19"/>
       <c r="J140" s="19"/>
@@ -9567,25 +9584,25 @@
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="17" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G141" s="40" t="s">
         <v>390</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="I141" s="19"/>
       <c r="J141" s="19"/>
       <c r="K141" s="19"/>
-      <c r="L141" s="21"/>
-      <c r="M141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="21"/>
       <c r="N141" s="19"/>
     </row>
     <row r="142" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -9597,10 +9614,10 @@
       </c>
       <c r="C142" s="33"/>
       <c r="D142" s="17" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="F142" s="17" t="s">
         <v>811</v>
@@ -9609,7 +9626,7 @@
         <v>390</v>
       </c>
       <c r="H142" s="37" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="I142" s="19"/>
       <c r="J142" s="19"/>
@@ -9627,19 +9644,19 @@
       </c>
       <c r="C143" s="33"/>
       <c r="D143" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>768</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G143" s="40" t="s">
         <v>390</v>
       </c>
       <c r="H143" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I143" s="19"/>
       <c r="J143" s="19"/>
@@ -9657,19 +9674,19 @@
       </c>
       <c r="C144" s="33"/>
       <c r="D144" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G144" s="40" t="s">
         <v>390</v>
       </c>
       <c r="H144" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I144" s="19"/>
       <c r="J144" s="19"/>
@@ -9687,24 +9704,24 @@
       </c>
       <c r="C145" s="33"/>
       <c r="D145" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>769</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G145" s="40" t="s">
         <v>390</v>
       </c>
       <c r="H145" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I145" s="19"/>
       <c r="J145" s="19"/>
       <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
+      <c r="L145" s="21"/>
       <c r="M145" s="19"/>
       <c r="N145" s="19"/>
     </row>
@@ -9717,19 +9734,19 @@
       </c>
       <c r="C146" s="33"/>
       <c r="D146" s="17" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G146" s="40" t="s">
         <v>390</v>
       </c>
       <c r="H146" s="37" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
@@ -9738,69 +9755,63 @@
       <c r="M146" s="19"/>
       <c r="N146" s="19"/>
     </row>
-    <row r="147" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="B147" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>995</v>
-      </c>
-      <c r="D147" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="E147" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="F147" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="G147" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="H147" s="57" t="s">
-        <v>993</v>
-      </c>
-      <c r="I147" s="26"/>
-      <c r="J147" s="26"/>
-      <c r="K147" s="28"/>
-      <c r="L147" s="28"/>
-      <c r="M147" s="26"/>
-      <c r="N147" s="26"/>
-    </row>
-    <row r="148" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="B148" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>995</v>
-      </c>
-      <c r="D148" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="E148" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="F148" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="G148" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="H148" s="57" t="s">
-        <v>993</v>
-      </c>
-      <c r="I148" s="26"/>
-      <c r="J148" s="26"/>
-      <c r="K148" s="28"/>
-      <c r="L148" s="28"/>
-      <c r="M148" s="26"/>
-      <c r="N148" s="26"/>
+    <row r="147" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="C147" s="33"/>
+      <c r="D147" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E147" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F147" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G147" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H147" s="37"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+    </row>
+    <row r="148" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="C148" s="33"/>
+      <c r="D148" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G148" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H148" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
     </row>
     <row r="149" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24" t="s">
@@ -9813,10 +9824,10 @@
         <v>995</v>
       </c>
       <c r="D149" s="29" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F149" s="29" t="s">
         <v>811</v>
@@ -9845,10 +9856,10 @@
         <v>995</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F150" s="29" t="s">
         <v>813</v>
@@ -9877,10 +9888,10 @@
         <v>995</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F151" s="29" t="s">
         <v>811</v>
@@ -9909,10 +9920,10 @@
         <v>995</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F152" s="29" t="s">
         <v>813</v>
@@ -9930,69 +9941,69 @@
       <c r="M152" s="26"/>
       <c r="N152" s="26"/>
     </row>
-    <row r="153" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B153" s="33" t="s">
+    <row r="153" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="B153" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="D153" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="E153" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="F153" s="35" t="s">
-        <v>811</v>
-      </c>
-      <c r="G153" s="33" t="s">
+      <c r="D153" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="G153" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="H153" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="19"/>
-    </row>
-    <row r="154" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B154" s="33" t="s">
+      <c r="H153" s="57" t="s">
+        <v>993</v>
+      </c>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="26"/>
+      <c r="N153" s="26"/>
+    </row>
+    <row r="154" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="B154" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="D154" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="E154" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="F154" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G154" s="33" t="s">
+      <c r="D154" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E154" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="G154" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="H154" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="45"/>
-      <c r="N154" s="19"/>
+      <c r="H154" s="57" t="s">
+        <v>993</v>
+      </c>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="28"/>
+      <c r="M154" s="26"/>
+      <c r="N154" s="26"/>
     </row>
     <row r="155" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="36" t="s">
@@ -10004,20 +10015,20 @@
       <c r="C155" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D155" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="E155" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="F155" s="33" t="s">
+      <c r="D155" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="E155" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="F155" s="35" t="s">
         <v>811</v>
       </c>
       <c r="G155" s="33" t="s">
         <v>371</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>516</v>
+        <v>360</v>
       </c>
       <c r="I155" s="19"/>
       <c r="J155" s="19"/>
@@ -10036,19 +10047,21 @@
       <c r="C156" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D156" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="E156" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="F156" s="33" t="s">
+      <c r="D156" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="F156" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G156" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H156" s="33"/>
+      <c r="H156" s="37" t="s">
+        <v>516</v>
+      </c>
       <c r="I156" s="19"/>
       <c r="J156" s="19"/>
       <c r="K156" s="21"/>
@@ -10066,19 +10079,21 @@
       <c r="C157" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D157" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="E157" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="F157" s="17" t="s">
+      <c r="D157" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="F157" s="33" t="s">
         <v>811</v>
       </c>
       <c r="G157" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H157" s="17"/>
+      <c r="H157" s="37" t="s">
+        <v>516</v>
+      </c>
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
       <c r="K157" s="21"/>
@@ -10096,21 +10111,19 @@
       <c r="C158" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D158" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="E158" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="F158" s="17" t="s">
+      <c r="D158" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="E158" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="F158" s="33" t="s">
         <v>811</v>
       </c>
       <c r="G158" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H158" s="37" t="s">
-        <v>517</v>
-      </c>
+      <c r="H158" s="33"/>
       <c r="I158" s="19"/>
       <c r="J158" s="19"/>
       <c r="K158" s="21"/>
@@ -10129,10 +10142,10 @@
         <v>995</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F159" s="17" t="s">
         <v>811</v>
@@ -10143,9 +10156,9 @@
       <c r="H159" s="17"/>
       <c r="I159" s="19"/>
       <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
+      <c r="K159" s="21"/>
       <c r="L159" s="21"/>
-      <c r="M159" s="21"/>
+      <c r="M159" s="45"/>
       <c r="N159" s="19"/>
     </row>
     <row r="160" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -10159,23 +10172,25 @@
         <v>995</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G160" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H160" s="17"/>
+      <c r="H160" s="37" t="s">
+        <v>517</v>
+      </c>
       <c r="I160" s="19"/>
       <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
+      <c r="K160" s="21"/>
       <c r="L160" s="21"/>
-      <c r="M160" s="21"/>
+      <c r="M160" s="45"/>
       <c r="N160" s="19"/>
     </row>
     <row r="161" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -10189,10 +10204,10 @@
         <v>995</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F161" s="17" t="s">
         <v>811</v>
@@ -10218,19 +10233,19 @@
       <c r="C162" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D162" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="E162" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="F162" s="33" t="s">
-        <v>811</v>
+      <c r="D162" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>813</v>
       </c>
       <c r="G162" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H162" s="33"/>
+      <c r="H162" s="17"/>
       <c r="I162" s="19"/>
       <c r="J162" s="19"/>
       <c r="K162" s="19"/>
@@ -10248,24 +10263,24 @@
       <c r="C163" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D163" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E163" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="F163" s="33" t="s">
+      <c r="D163" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="F163" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G163" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H163" s="33"/>
+      <c r="H163" s="17"/>
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
       <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
+      <c r="L163" s="21"/>
+      <c r="M163" s="21"/>
       <c r="N163" s="19"/>
     </row>
     <row r="164" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -10279,10 +10294,10 @@
         <v>995</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F164" s="33" t="s">
         <v>811</v>
@@ -10294,8 +10309,8 @@
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
       <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
+      <c r="L164" s="21"/>
+      <c r="M164" s="21"/>
       <c r="N164" s="19"/>
     </row>
     <row r="165" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -10309,10 +10324,10 @@
         <v>995</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>513</v>
+        <v>304</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F165" s="33" t="s">
         <v>811</v>
@@ -10339,10 +10354,10 @@
         <v>995</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F166" s="33" t="s">
         <v>811</v>
@@ -10359,7 +10374,7 @@
       <c r="N166" s="19"/>
     </row>
     <row r="167" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="36" t="s">
         <v>212</v>
       </c>
       <c r="B167" s="33" t="s">
@@ -10368,28 +10383,28 @@
       <c r="C167" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D167" s="32" t="s">
-        <v>840</v>
-      </c>
-      <c r="E167" s="32" t="s">
-        <v>651</v>
-      </c>
-      <c r="F167" s="32" t="s">
+      <c r="D167" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="E167" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="F167" s="33" t="s">
         <v>811</v>
       </c>
       <c r="G167" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H167" s="17"/>
+      <c r="H167" s="33"/>
       <c r="I167" s="19"/>
       <c r="J167" s="19"/>
       <c r="K167" s="19"/>
-      <c r="L167" s="21"/>
+      <c r="L167" s="19"/>
       <c r="M167" s="19"/>
       <c r="N167" s="19"/>
     </row>
     <row r="168" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="36" t="s">
         <v>212</v>
       </c>
       <c r="B168" s="33" t="s">
@@ -10398,23 +10413,23 @@
       <c r="C168" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D168" s="32" t="s">
-        <v>841</v>
-      </c>
-      <c r="E168" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="F168" s="32" t="s">
+      <c r="D168" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="E168" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="F168" s="33" t="s">
         <v>811</v>
       </c>
       <c r="G168" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H168" s="17"/>
+      <c r="H168" s="33"/>
       <c r="I168" s="19"/>
       <c r="J168" s="19"/>
       <c r="K168" s="19"/>
-      <c r="L168" s="21"/>
+      <c r="L168" s="19"/>
       <c r="M168" s="19"/>
       <c r="N168" s="19"/>
     </row>
@@ -10429,10 +10444,10 @@
         <v>995</v>
       </c>
       <c r="D169" s="32" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F169" s="32" t="s">
         <v>811</v>
@@ -10459,10 +10474,10 @@
         <v>995</v>
       </c>
       <c r="D170" s="32" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F170" s="32" t="s">
         <v>811</v>
@@ -10489,10 +10504,10 @@
         <v>995</v>
       </c>
       <c r="D171" s="32" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F171" s="32" t="s">
         <v>811</v>
@@ -10519,10 +10534,10 @@
         <v>995</v>
       </c>
       <c r="D172" s="32" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F172" s="32" t="s">
         <v>811</v>
@@ -10538,69 +10553,65 @@
       <c r="M172" s="19"/>
       <c r="N172" s="19"/>
     </row>
-    <row r="173" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="42" t="s">
-        <v>996</v>
-      </c>
-      <c r="B173" s="23" t="s">
+    <row r="173" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B173" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C173" s="23" t="s">
+      <c r="C173" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D173" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="G173" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="H173" s="57" t="s">
-        <v>997</v>
-      </c>
-      <c r="I173" s="26"/>
-      <c r="J173" s="26"/>
-      <c r="K173" s="26"/>
-      <c r="L173" s="28"/>
-      <c r="M173" s="26"/>
-      <c r="N173" s="26"/>
-    </row>
-    <row r="174" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="42" t="s">
-        <v>996</v>
-      </c>
-      <c r="B174" s="23" t="s">
+      <c r="D173" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="G173" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="H173" s="17"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="21"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+    </row>
+    <row r="174" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B174" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" s="17" t="s">
         <v>995</v>
       </c>
-      <c r="D174" s="24" t="s">
-        <v>849</v>
-      </c>
-      <c r="E174" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="F174" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="G174" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="H174" s="57" t="s">
-        <v>997</v>
-      </c>
-      <c r="I174" s="26"/>
-      <c r="J174" s="26"/>
-      <c r="K174" s="26"/>
-      <c r="L174" s="28"/>
-      <c r="M174" s="26"/>
-      <c r="N174" s="26"/>
+      <c r="D174" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="F174" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="G174" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="H174" s="17"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="21"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
     </row>
     <row r="175" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="42" t="s">
@@ -10613,13 +10624,13 @@
         <v>995</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F175" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G175" s="41" t="s">
         <v>390</v>
@@ -10634,59 +10645,71 @@
       <c r="M175" s="26"/>
       <c r="N175" s="26"/>
     </row>
-    <row r="176" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="B176" s="17" t="s">
+    <row r="176" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="42" t="s">
+        <v>996</v>
+      </c>
+      <c r="B176" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C176" s="17"/>
-      <c r="D176" s="46" t="s">
-        <v>890</v>
-      </c>
-      <c r="E176" s="46" t="s">
-        <v>695</v>
-      </c>
-      <c r="F176" s="46" t="s">
-        <v>811</v>
-      </c>
-      <c r="G176" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="H176" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-    </row>
-    <row r="177" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="B177" s="17" t="s">
+      <c r="C176" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="G176" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="H176" s="57" t="s">
+        <v>997</v>
+      </c>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="28"/>
+      <c r="M176" s="26"/>
+      <c r="N176" s="26"/>
+    </row>
+    <row r="177" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="42" t="s">
+        <v>996</v>
+      </c>
+      <c r="B177" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="E177" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="F177" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G177" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="H177" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-    </row>
-    <row r="178" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C177" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="G177" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="H177" s="57" t="s">
+        <v>997</v>
+      </c>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="28"/>
+      <c r="M177" s="26"/>
+      <c r="N177" s="26"/>
+    </row>
+    <row r="178" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="51" t="s">
         <v>224</v>
       </c>
@@ -10694,23 +10717,25 @@
         <v>197</v>
       </c>
       <c r="C178" s="17"/>
-      <c r="D178" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="E178" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="F178" s="17" t="s">
+      <c r="D178" s="46" t="s">
+        <v>890</v>
+      </c>
+      <c r="E178" s="46" t="s">
+        <v>695</v>
+      </c>
+      <c r="F178" s="46" t="s">
         <v>811</v>
       </c>
       <c r="G178" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="H178" s="33"/>
+      <c r="H178" s="37" t="s">
+        <v>522</v>
+      </c>
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
     </row>
-    <row r="179" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="51" t="s">
         <v>224</v>
       </c>
@@ -10718,23 +10743,25 @@
         <v>197</v>
       </c>
       <c r="C179" s="17"/>
-      <c r="D179" s="33" t="s">
-        <v>909</v>
-      </c>
-      <c r="E179" s="33" t="s">
-        <v>712</v>
-      </c>
-      <c r="F179" s="33" t="s">
-        <v>812</v>
+      <c r="D179" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>811</v>
       </c>
       <c r="G179" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="H179" s="33"/>
+      <c r="H179" s="37" t="s">
+        <v>521</v>
+      </c>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
     </row>
-    <row r="180" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="51" t="s">
         <v>224</v>
       </c>
@@ -10742,13 +10769,13 @@
         <v>197</v>
       </c>
       <c r="C180" s="17"/>
-      <c r="D180" s="33" t="s">
-        <v>931</v>
-      </c>
-      <c r="E180" s="33" t="s">
-        <v>727</v>
-      </c>
-      <c r="F180" s="33" t="s">
+      <c r="D180" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="F180" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G180" s="46" t="s">
@@ -10758,7 +10785,7 @@
       <c r="I180" s="19"/>
       <c r="J180" s="19"/>
     </row>
-    <row r="181" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="51" t="s">
         <v>224</v>
       </c>
@@ -10767,10 +10794,10 @@
       </c>
       <c r="C181" s="17"/>
       <c r="D181" s="33" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="E181" s="33" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="F181" s="33" t="s">
         <v>812</v>
@@ -10782,7 +10809,7 @@
       <c r="I181" s="19"/>
       <c r="J181" s="19"/>
     </row>
-    <row r="182" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="51" t="s">
         <v>224</v>
       </c>
@@ -10791,10 +10818,10 @@
       </c>
       <c r="C182" s="17"/>
       <c r="D182" s="33" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E182" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F182" s="33" t="s">
         <v>811</v>
@@ -10806,7 +10833,7 @@
       <c r="I182" s="19"/>
       <c r="J182" s="19"/>
     </row>
-    <row r="183" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="51" t="s">
         <v>224</v>
       </c>
@@ -10815,13 +10842,13 @@
       </c>
       <c r="C183" s="17"/>
       <c r="D183" s="33" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E183" s="33" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F183" s="33" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G183" s="46" t="s">
         <v>371</v>
@@ -10830,7 +10857,7 @@
       <c r="I183" s="19"/>
       <c r="J183" s="19"/>
     </row>
-    <row r="184" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="51" t="s">
         <v>224</v>
       </c>
@@ -10839,10 +10866,10 @@
       </c>
       <c r="C184" s="17"/>
       <c r="D184" s="33" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E184" s="33" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F184" s="33" t="s">
         <v>811</v>
@@ -10854,7 +10881,7 @@
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
     </row>
-    <row r="185" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="51" t="s">
         <v>224</v>
       </c>
@@ -10863,10 +10890,10 @@
       </c>
       <c r="C185" s="17"/>
       <c r="D185" s="33" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E185" s="33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F185" s="33" t="s">
         <v>811</v>
@@ -10878,7 +10905,7 @@
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
     </row>
-    <row r="186" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="51" t="s">
         <v>224</v>
       </c>
@@ -10887,10 +10914,10 @@
       </c>
       <c r="C186" s="17"/>
       <c r="D186" s="33" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F186" s="33" t="s">
         <v>811</v>
@@ -10902,7 +10929,7 @@
       <c r="I186" s="19"/>
       <c r="J186" s="19"/>
     </row>
-    <row r="187" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="51" t="s">
         <v>224</v>
       </c>
@@ -10911,10 +10938,10 @@
       </c>
       <c r="C187" s="17"/>
       <c r="D187" s="33" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F187" s="33" t="s">
         <v>811</v>
@@ -10926,7 +10953,7 @@
       <c r="I187" s="19"/>
       <c r="J187" s="19"/>
     </row>
-    <row r="188" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="51" t="s">
         <v>224</v>
       </c>
@@ -10935,10 +10962,10 @@
       </c>
       <c r="C188" s="17"/>
       <c r="D188" s="33" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F188" s="33" t="s">
         <v>811</v>
@@ -10950,7 +10977,7 @@
       <c r="I188" s="19"/>
       <c r="J188" s="19"/>
     </row>
-    <row r="189" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="51" t="s">
         <v>224</v>
       </c>
@@ -10959,10 +10986,10 @@
       </c>
       <c r="C189" s="17"/>
       <c r="D189" s="33" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F189" s="33" t="s">
         <v>811</v>
@@ -10974,7 +11001,7 @@
       <c r="I189" s="19"/>
       <c r="J189" s="19"/>
     </row>
-    <row r="190" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="51" t="s">
         <v>224</v>
       </c>
@@ -10983,10 +11010,10 @@
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="33" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F190" s="33" t="s">
         <v>811</v>
@@ -10998,7 +11025,7 @@
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
     </row>
-    <row r="191" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="51" t="s">
         <v>224</v>
       </c>
@@ -11007,13 +11034,13 @@
       </c>
       <c r="C191" s="17"/>
       <c r="D191" s="33" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F191" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G191" s="46" t="s">
         <v>371</v>
@@ -11022,7 +11049,7 @@
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
     </row>
-    <row r="192" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="51" t="s">
         <v>224</v>
       </c>
@@ -11031,10 +11058,10 @@
       </c>
       <c r="C192" s="17"/>
       <c r="D192" s="33" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F192" s="33" t="s">
         <v>811</v>
@@ -11055,10 +11082,10 @@
       </c>
       <c r="C193" s="17"/>
       <c r="D193" s="33" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F193" s="33" t="s">
         <v>812</v>
@@ -11079,10 +11106,10 @@
       </c>
       <c r="C194" s="17"/>
       <c r="D194" s="33" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E194" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F194" s="33" t="s">
         <v>811</v>
@@ -11103,10 +11130,10 @@
       </c>
       <c r="C195" s="17"/>
       <c r="D195" s="33" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E195" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F195" s="33" t="s">
         <v>812</v>
@@ -11127,10 +11154,10 @@
       </c>
       <c r="C196" s="17"/>
       <c r="D196" s="33" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E196" s="33" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F196" s="33" t="s">
         <v>811</v>
@@ -11138,9 +11165,7 @@
       <c r="G196" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="H196" s="58" t="s">
-        <v>992</v>
-      </c>
+      <c r="H196" s="33"/>
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
     </row>
@@ -11152,21 +11177,19 @@
         <v>197</v>
       </c>
       <c r="C197" s="17"/>
-      <c r="D197" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="E197" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="F197" s="17" t="s">
+      <c r="D197" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="E197" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="F197" s="33" t="s">
         <v>812</v>
       </c>
       <c r="G197" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="H197" s="58" t="s">
-        <v>992</v>
-      </c>
+      <c r="H197" s="33"/>
       <c r="I197" s="19"/>
       <c r="J197" s="19"/>
     </row>
@@ -11178,13 +11201,13 @@
         <v>197</v>
       </c>
       <c r="C198" s="17"/>
-      <c r="D198" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="E198" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="F198" s="17" t="s">
+      <c r="D198" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="E198" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="F198" s="33" t="s">
         <v>811</v>
       </c>
       <c r="G198" s="46" t="s">
@@ -11205,13 +11228,13 @@
       </c>
       <c r="C199" s="17"/>
       <c r="D199" s="17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G199" s="46" t="s">
         <v>371</v>
@@ -11230,29 +11253,23 @@
         <v>197</v>
       </c>
       <c r="C200" s="17"/>
-      <c r="D200" s="46" t="s">
-        <v>884</v>
-      </c>
-      <c r="E200" s="46" t="s">
-        <v>689</v>
-      </c>
-      <c r="F200" s="46" t="s">
-        <v>811</v>
-      </c>
-      <c r="G200" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="H200" s="37" t="s">
-        <v>519</v>
+      <c r="D200" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="F200" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G200" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H200" s="58" t="s">
+        <v>992</v>
       </c>
       <c r="I200" s="19"/>
       <c r="J200" s="19"/>
-      <c r="K200" s="60" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L200" s="21"/>
-      <c r="M200" s="45"/>
-      <c r="N200" s="19"/>
     </row>
     <row r="201" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="51" t="s">
@@ -11262,29 +11279,23 @@
         <v>197</v>
       </c>
       <c r="C201" s="17"/>
-      <c r="D201" s="46" t="s">
-        <v>885</v>
-      </c>
-      <c r="E201" s="46" t="s">
-        <v>690</v>
-      </c>
-      <c r="F201" s="46" t="s">
-        <v>811</v>
-      </c>
-      <c r="G201" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="H201" s="18" t="s">
-        <v>520</v>
+      <c r="D201" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="E201" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="F201" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G201" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H201" s="58" t="s">
+        <v>992</v>
       </c>
       <c r="I201" s="19"/>
       <c r="J201" s="19"/>
-      <c r="K201" s="60" t="s">
-        <v>1003</v>
-      </c>
-      <c r="L201" s="21"/>
-      <c r="M201" s="45"/>
-      <c r="N201" s="19"/>
     </row>
     <row r="202" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="51" t="s">
@@ -11294,25 +11305,25 @@
         <v>197</v>
       </c>
       <c r="C202" s="17"/>
-      <c r="D202" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="E202" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="F202" s="17" t="s">
+      <c r="D202" s="46" t="s">
+        <v>884</v>
+      </c>
+      <c r="E202" s="46" t="s">
+        <v>689</v>
+      </c>
+      <c r="F202" s="46" t="s">
         <v>811</v>
       </c>
       <c r="G202" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H202" s="18" t="s">
-        <v>520</v>
+      <c r="H202" s="37" t="s">
+        <v>519</v>
       </c>
       <c r="I202" s="19"/>
       <c r="J202" s="19"/>
       <c r="K202" s="60" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L202" s="21"/>
       <c r="M202" s="45"/>
@@ -11326,13 +11337,13 @@
         <v>197</v>
       </c>
       <c r="C203" s="17"/>
-      <c r="D203" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="E203" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="F203" s="17" t="s">
+      <c r="D203" s="46" t="s">
+        <v>885</v>
+      </c>
+      <c r="E203" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="F203" s="46" t="s">
         <v>811</v>
       </c>
       <c r="G203" s="38" t="s">
@@ -11359,10 +11370,10 @@
       </c>
       <c r="C204" s="17"/>
       <c r="D204" s="17" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F204" s="17" t="s">
         <v>811</v>
@@ -11379,7 +11390,7 @@
         <v>1003</v>
       </c>
       <c r="L204" s="21"/>
-      <c r="M204" s="19"/>
+      <c r="M204" s="45"/>
       <c r="N204" s="19"/>
     </row>
     <row r="205" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11391,10 +11402,10 @@
       </c>
       <c r="C205" s="17"/>
       <c r="D205" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F205" s="17" t="s">
         <v>811</v>
@@ -11402,12 +11413,16 @@
       <c r="G205" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H205" s="17"/>
+      <c r="H205" s="18" t="s">
+        <v>520</v>
+      </c>
       <c r="I205" s="19"/>
       <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="21"/>
+      <c r="K205" s="60" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L205" s="21"/>
+      <c r="M205" s="45"/>
       <c r="N205" s="19"/>
     </row>
     <row r="206" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11419,10 +11434,10 @@
       </c>
       <c r="C206" s="17"/>
       <c r="D206" s="17" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F206" s="17" t="s">
         <v>811</v>
@@ -11430,12 +11445,16 @@
       <c r="G206" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H206" s="17"/>
+      <c r="H206" s="18" t="s">
+        <v>520</v>
+      </c>
       <c r="I206" s="19"/>
       <c r="J206" s="19"/>
-      <c r="K206" s="19"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="21"/>
+      <c r="K206" s="60" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L206" s="21"/>
+      <c r="M206" s="19"/>
       <c r="N206" s="19"/>
     </row>
     <row r="207" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11447,10 +11466,10 @@
       </c>
       <c r="C207" s="17"/>
       <c r="D207" s="17" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F207" s="17" t="s">
         <v>811</v>
@@ -11462,8 +11481,8 @@
       <c r="I207" s="19"/>
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
-      <c r="L207" s="21"/>
-      <c r="M207" s="19"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="21"/>
       <c r="N207" s="19"/>
     </row>
     <row r="208" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11475,10 +11494,10 @@
       </c>
       <c r="C208" s="17"/>
       <c r="D208" s="17" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F208" s="17" t="s">
         <v>811</v>
@@ -11490,8 +11509,8 @@
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
-      <c r="L208" s="21"/>
-      <c r="M208" s="19"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="21"/>
       <c r="N208" s="19"/>
     </row>
     <row r="209" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11503,10 +11522,10 @@
       </c>
       <c r="C209" s="17"/>
       <c r="D209" s="17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F209" s="17" t="s">
         <v>811</v>
@@ -11518,8 +11537,8 @@
       <c r="I209" s="19"/>
       <c r="J209" s="19"/>
       <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="21"/>
+      <c r="L209" s="21"/>
+      <c r="M209" s="19"/>
       <c r="N209" s="19"/>
     </row>
     <row r="210" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11531,10 +11550,10 @@
       </c>
       <c r="C210" s="17"/>
       <c r="D210" s="17" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F210" s="17" t="s">
         <v>811</v>
@@ -11545,26 +11564,26 @@
       <c r="H210" s="17"/>
       <c r="I210" s="19"/>
       <c r="J210" s="19"/>
-      <c r="K210" s="21"/>
+      <c r="K210" s="19"/>
       <c r="L210" s="21"/>
       <c r="M210" s="19"/>
       <c r="N210" s="19"/>
     </row>
     <row r="211" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="52" t="s">
+      <c r="A211" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B211" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C211" s="17"/>
-      <c r="D211" s="32" t="s">
-        <v>896</v>
-      </c>
-      <c r="E211" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="F211" s="32" t="s">
+      <c r="D211" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="F211" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G211" s="38" t="s">
@@ -11573,9 +11592,9 @@
       <c r="H211" s="17"/>
       <c r="I211" s="19"/>
       <c r="J211" s="19"/>
-      <c r="K211" s="21"/>
-      <c r="L211" s="21"/>
-      <c r="M211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="21"/>
       <c r="N211" s="19"/>
     </row>
     <row r="212" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11587,10 +11606,10 @@
       </c>
       <c r="C212" s="17"/>
       <c r="D212" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F212" s="17" t="s">
         <v>811</v>
@@ -11598,7 +11617,7 @@
       <c r="G212" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H212" s="18"/>
+      <c r="H212" s="17"/>
       <c r="I212" s="19"/>
       <c r="J212" s="19"/>
       <c r="K212" s="21"/>
@@ -11615,13 +11634,13 @@
       </c>
       <c r="C213" s="17"/>
       <c r="D213" s="32" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E213" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F213" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G213" s="38" t="s">
         <v>359</v>
@@ -11629,35 +11648,35 @@
       <c r="H213" s="17"/>
       <c r="I213" s="19"/>
       <c r="J213" s="19"/>
-      <c r="K213" s="19"/>
+      <c r="K213" s="21"/>
       <c r="L213" s="21"/>
       <c r="M213" s="19"/>
       <c r="N213" s="19"/>
     </row>
     <row r="214" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="52" t="s">
+      <c r="A214" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B214" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C214" s="17"/>
-      <c r="D214" s="32" t="s">
-        <v>899</v>
-      </c>
-      <c r="E214" s="32" t="s">
-        <v>703</v>
-      </c>
-      <c r="F214" s="32" t="s">
+      <c r="D214" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="F214" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G214" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H214" s="17"/>
+      <c r="H214" s="18"/>
       <c r="I214" s="19"/>
       <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
+      <c r="K214" s="21"/>
       <c r="L214" s="21"/>
       <c r="M214" s="19"/>
       <c r="N214" s="19"/>
@@ -11671,13 +11690,13 @@
       </c>
       <c r="C215" s="17"/>
       <c r="D215" s="32" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E215" s="32" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F215" s="32" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G215" s="38" t="s">
         <v>359</v>
@@ -11685,9 +11704,9 @@
       <c r="H215" s="17"/>
       <c r="I215" s="19"/>
       <c r="J215" s="19"/>
-      <c r="K215" s="21"/>
+      <c r="K215" s="19"/>
       <c r="L215" s="21"/>
-      <c r="M215" s="45"/>
+      <c r="M215" s="19"/>
       <c r="N215" s="19"/>
     </row>
     <row r="216" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11699,10 +11718,10 @@
       </c>
       <c r="C216" s="17"/>
       <c r="D216" s="32" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F216" s="32" t="s">
         <v>811</v>
@@ -11713,26 +11732,26 @@
       <c r="H216" s="17"/>
       <c r="I216" s="19"/>
       <c r="J216" s="19"/>
-      <c r="K216" s="21"/>
+      <c r="K216" s="19"/>
       <c r="L216" s="21"/>
-      <c r="M216" s="45"/>
+      <c r="M216" s="19"/>
       <c r="N216" s="19"/>
     </row>
     <row r="217" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="51" t="s">
+      <c r="A217" s="52" t="s">
         <v>224</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C217" s="17"/>
-      <c r="D217" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="E217" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="F217" s="17" t="s">
+      <c r="D217" s="32" t="s">
+        <v>900</v>
+      </c>
+      <c r="E217" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="F217" s="32" t="s">
         <v>811</v>
       </c>
       <c r="G217" s="38" t="s">
@@ -11747,20 +11766,20 @@
       <c r="N217" s="19"/>
     </row>
     <row r="218" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="51" t="s">
+      <c r="A218" s="52" t="s">
         <v>224</v>
       </c>
       <c r="B218" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C218" s="17"/>
-      <c r="D218" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="E218" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="F218" s="17" t="s">
+      <c r="D218" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="E218" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="F218" s="32" t="s">
         <v>811</v>
       </c>
       <c r="G218" s="38" t="s">
@@ -11783,10 +11802,10 @@
       </c>
       <c r="C219" s="17"/>
       <c r="D219" s="17" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F219" s="17" t="s">
         <v>811</v>
@@ -11799,7 +11818,7 @@
       <c r="J219" s="19"/>
       <c r="K219" s="21"/>
       <c r="L219" s="21"/>
-      <c r="M219" s="19"/>
+      <c r="M219" s="45"/>
       <c r="N219" s="19"/>
     </row>
     <row r="220" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11811,10 +11830,10 @@
       </c>
       <c r="C220" s="17"/>
       <c r="D220" s="17" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F220" s="17" t="s">
         <v>811</v>
@@ -11822,16 +11841,12 @@
       <c r="G220" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H220" s="37" t="s">
-        <v>521</v>
-      </c>
+      <c r="H220" s="17"/>
       <c r="I220" s="19"/>
       <c r="J220" s="19"/>
-      <c r="K220" s="60" t="s">
-        <v>1001</v>
-      </c>
+      <c r="K220" s="21"/>
       <c r="L220" s="21"/>
-      <c r="M220" s="19"/>
+      <c r="M220" s="45"/>
       <c r="N220" s="19"/>
     </row>
     <row r="221" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11842,26 +11857,22 @@
         <v>197</v>
       </c>
       <c r="C221" s="17"/>
-      <c r="D221" s="33" t="s">
-        <v>907</v>
-      </c>
-      <c r="E221" s="33" t="s">
-        <v>711</v>
-      </c>
-      <c r="F221" s="33" t="s">
+      <c r="D221" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="E221" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="F221" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G221" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H221" s="37" t="s">
-        <v>521</v>
-      </c>
+      <c r="H221" s="17"/>
       <c r="I221" s="19"/>
       <c r="J221" s="19"/>
-      <c r="K221" s="60" t="s">
-        <v>1001</v>
-      </c>
+      <c r="K221" s="21"/>
       <c r="L221" s="21"/>
       <c r="M221" s="19"/>
       <c r="N221" s="19"/>
@@ -11874,22 +11885,26 @@
         <v>197</v>
       </c>
       <c r="C222" s="17"/>
-      <c r="D222" s="33" t="s">
-        <v>911</v>
-      </c>
-      <c r="E222" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="F222" s="33" t="s">
+      <c r="D222" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="F222" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G222" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H222" s="33"/>
+      <c r="H222" s="37" t="s">
+        <v>521</v>
+      </c>
       <c r="I222" s="19"/>
       <c r="J222" s="19"/>
-      <c r="K222" s="21"/>
+      <c r="K222" s="60" t="s">
+        <v>1001</v>
+      </c>
       <c r="L222" s="21"/>
       <c r="M222" s="19"/>
       <c r="N222" s="19"/>
@@ -11902,24 +11917,26 @@
         <v>197</v>
       </c>
       <c r="C223" s="17"/>
-      <c r="D223" s="46" t="s">
-        <v>912</v>
-      </c>
-      <c r="E223" s="46" t="s">
-        <v>715</v>
-      </c>
-      <c r="F223" s="46" t="s">
-        <v>811</v>
-      </c>
-      <c r="G223" s="47" t="s">
+      <c r="D223" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="E223" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="F223" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="G223" s="38" t="s">
         <v>359</v>
       </c>
       <c r="H223" s="37" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I223" s="19"/>
       <c r="J223" s="19"/>
-      <c r="K223" s="21"/>
+      <c r="K223" s="60" t="s">
+        <v>1001</v>
+      </c>
       <c r="L223" s="21"/>
       <c r="M223" s="19"/>
       <c r="N223" s="19"/>
@@ -11933,10 +11950,10 @@
       </c>
       <c r="C224" s="17"/>
       <c r="D224" s="33" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F224" s="33" t="s">
         <v>811</v>
@@ -11960,19 +11977,21 @@
         <v>197</v>
       </c>
       <c r="C225" s="17"/>
-      <c r="D225" s="33" t="s">
-        <v>914</v>
-      </c>
-      <c r="E225" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="F225" s="33" t="s">
-        <v>812</v>
-      </c>
-      <c r="G225" s="38" t="s">
+      <c r="D225" s="46" t="s">
+        <v>912</v>
+      </c>
+      <c r="E225" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="F225" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="G225" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="H225" s="33"/>
+      <c r="H225" s="37" t="s">
+        <v>525</v>
+      </c>
       <c r="I225" s="19"/>
       <c r="J225" s="19"/>
       <c r="K225" s="21"/>
@@ -11988,21 +12007,19 @@
         <v>197</v>
       </c>
       <c r="C226" s="17"/>
-      <c r="D226" s="17" t="s">
-        <v>915</v>
-      </c>
-      <c r="E226" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="F226" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G226" s="47" t="s">
+      <c r="D226" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="E226" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="F226" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="G226" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H226" s="37" t="s">
-        <v>526</v>
-      </c>
+      <c r="H226" s="33"/>
       <c r="I226" s="19"/>
       <c r="J226" s="19"/>
       <c r="K226" s="21"/>
@@ -12019,20 +12036,18 @@
       </c>
       <c r="C227" s="17"/>
       <c r="D227" s="33" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E227" s="33" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F227" s="33" t="s">
         <v>812</v>
       </c>
-      <c r="G227" s="47" t="s">
+      <c r="G227" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H227" s="37" t="s">
-        <v>527</v>
-      </c>
+      <c r="H227" s="33"/>
       <c r="I227" s="19"/>
       <c r="J227" s="19"/>
       <c r="K227" s="21"/>
@@ -12048,20 +12063,20 @@
         <v>197</v>
       </c>
       <c r="C228" s="17"/>
-      <c r="D228" s="33" t="s">
-        <v>917</v>
-      </c>
-      <c r="E228" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="F228" s="33" t="s">
+      <c r="D228" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="F228" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G228" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H228" s="37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I228" s="19"/>
       <c r="J228" s="19"/>
@@ -12079,10 +12094,10 @@
       </c>
       <c r="C229" s="17"/>
       <c r="D229" s="33" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E229" s="33" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F229" s="33" t="s">
         <v>812</v>
@@ -12091,7 +12106,7 @@
         <v>359</v>
       </c>
       <c r="H229" s="37" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I229" s="19"/>
       <c r="J229" s="19"/>
@@ -12109,19 +12124,19 @@
       </c>
       <c r="C230" s="17"/>
       <c r="D230" s="33" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E230" s="33" t="s">
         <v>718</v>
       </c>
       <c r="F230" s="33" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G230" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H230" s="37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I230" s="19"/>
       <c r="J230" s="19"/>
@@ -12139,19 +12154,19 @@
       </c>
       <c r="C231" s="17"/>
       <c r="D231" s="33" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E231" s="33" t="s">
         <v>718</v>
       </c>
       <c r="F231" s="33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G231" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H231" s="37" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I231" s="19"/>
       <c r="J231" s="19"/>
@@ -12169,19 +12184,19 @@
       </c>
       <c r="C232" s="17"/>
       <c r="D232" s="33" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E232" s="33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F232" s="33" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G232" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H232" s="37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I232" s="19"/>
       <c r="J232" s="19"/>
@@ -12199,19 +12214,19 @@
       </c>
       <c r="C233" s="17"/>
       <c r="D233" s="33" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E233" s="33" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F233" s="33" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G233" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H233" s="37" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="19"/>
@@ -12229,10 +12244,10 @@
       </c>
       <c r="C234" s="17"/>
       <c r="D234" s="33" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E234" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F234" s="33" t="s">
         <v>811</v>
@@ -12241,12 +12256,12 @@
         <v>359</v>
       </c>
       <c r="H234" s="37" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I234" s="19"/>
       <c r="J234" s="19"/>
-      <c r="K234" s="19"/>
-      <c r="L234" s="19"/>
+      <c r="K234" s="21"/>
+      <c r="L234" s="21"/>
       <c r="M234" s="19"/>
       <c r="N234" s="19"/>
     </row>
@@ -12259,19 +12274,19 @@
       </c>
       <c r="C235" s="17"/>
       <c r="D235" s="33" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E235" s="33" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F235" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G235" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H235" s="37" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I235" s="19"/>
       <c r="J235" s="19"/>
@@ -12289,22 +12304,24 @@
       </c>
       <c r="C236" s="17"/>
       <c r="D236" s="33" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E236" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F236" s="33" t="s">
         <v>811</v>
       </c>
-      <c r="G236" s="38" t="s">
+      <c r="G236" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="H236" s="33"/>
+      <c r="H236" s="37" t="s">
+        <v>534</v>
+      </c>
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
-      <c r="K236" s="21"/>
-      <c r="L236" s="21"/>
+      <c r="K236" s="19"/>
+      <c r="L236" s="19"/>
       <c r="M236" s="19"/>
       <c r="N236" s="19"/>
     </row>
@@ -12317,19 +12334,19 @@
       </c>
       <c r="C237" s="17"/>
       <c r="D237" s="33" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E237" s="33" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F237" s="33" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G237" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H237" s="37" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
@@ -12347,15 +12364,15 @@
       </c>
       <c r="C238" s="17"/>
       <c r="D238" s="33" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E238" s="33" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F238" s="33" t="s">
         <v>811</v>
       </c>
-      <c r="G238" s="47" t="s">
+      <c r="G238" s="38" t="s">
         <v>359</v>
       </c>
       <c r="H238" s="33"/>
@@ -12375,18 +12392,20 @@
       </c>
       <c r="C239" s="17"/>
       <c r="D239" s="33" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E239" s="33" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F239" s="33" t="s">
         <v>811</v>
       </c>
-      <c r="G239" s="38" t="s">
+      <c r="G239" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="H239" s="33"/>
+      <c r="H239" s="37" t="s">
+        <v>524</v>
+      </c>
       <c r="I239" s="19"/>
       <c r="J239" s="19"/>
       <c r="K239" s="21"/>
@@ -12403,15 +12422,15 @@
       </c>
       <c r="C240" s="17"/>
       <c r="D240" s="33" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E240" s="33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F240" s="33" t="s">
-        <v>812</v>
-      </c>
-      <c r="G240" s="38" t="s">
+        <v>811</v>
+      </c>
+      <c r="G240" s="47" t="s">
         <v>359</v>
       </c>
       <c r="H240" s="33"/>
@@ -12431,10 +12450,10 @@
       </c>
       <c r="C241" s="17"/>
       <c r="D241" s="33" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E241" s="33" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F241" s="33" t="s">
         <v>811</v>
@@ -12458,21 +12477,19 @@
         <v>197</v>
       </c>
       <c r="C242" s="17"/>
-      <c r="D242" s="46" t="s">
-        <v>951</v>
-      </c>
-      <c r="E242" s="46" t="s">
-        <v>742</v>
-      </c>
-      <c r="F242" s="46" t="s">
-        <v>811</v>
+      <c r="D242" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="E242" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="F242" s="33" t="s">
+        <v>812</v>
       </c>
       <c r="G242" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H242" s="37" t="s">
-        <v>518</v>
-      </c>
+      <c r="H242" s="33"/>
       <c r="I242" s="19"/>
       <c r="J242" s="19"/>
       <c r="K242" s="21"/>
@@ -12481,26 +12498,26 @@
       <c r="N242" s="19"/>
     </row>
     <row r="243" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="52" t="s">
+      <c r="A243" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B243" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C243" s="17"/>
-      <c r="D243" s="32" t="s">
-        <v>952</v>
-      </c>
-      <c r="E243" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="F243" s="32" t="s">
+      <c r="D243" s="33" t="s">
+        <v>930</v>
+      </c>
+      <c r="E243" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="F243" s="33" t="s">
         <v>811</v>
       </c>
       <c r="G243" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H243" s="17"/>
+      <c r="H243" s="33"/>
       <c r="I243" s="19"/>
       <c r="J243" s="19"/>
       <c r="K243" s="21"/>
@@ -12509,26 +12526,28 @@
       <c r="N243" s="19"/>
     </row>
     <row r="244" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="52" t="s">
+      <c r="A244" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B244" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C244" s="17"/>
-      <c r="D244" s="32" t="s">
-        <v>953</v>
-      </c>
-      <c r="E244" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="F244" s="32" t="s">
-        <v>812</v>
+      <c r="D244" s="46" t="s">
+        <v>951</v>
+      </c>
+      <c r="E244" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="F244" s="46" t="s">
+        <v>811</v>
       </c>
       <c r="G244" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H244" s="17"/>
+      <c r="H244" s="37" t="s">
+        <v>518</v>
+      </c>
       <c r="I244" s="19"/>
       <c r="J244" s="19"/>
       <c r="K244" s="21"/>
@@ -12545,10 +12564,10 @@
       </c>
       <c r="C245" s="17"/>
       <c r="D245" s="32" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E245" s="32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F245" s="32" t="s">
         <v>811</v>
@@ -12559,7 +12578,7 @@
       <c r="H245" s="17"/>
       <c r="I245" s="19"/>
       <c r="J245" s="19"/>
-      <c r="K245" s="19"/>
+      <c r="K245" s="21"/>
       <c r="L245" s="21"/>
       <c r="M245" s="19"/>
       <c r="N245" s="19"/>
@@ -12573,10 +12592,10 @@
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="32" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E246" s="32" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F246" s="32" t="s">
         <v>812</v>
@@ -12589,7 +12608,7 @@
       <c r="J246" s="19"/>
       <c r="K246" s="21"/>
       <c r="L246" s="21"/>
-      <c r="M246" s="45"/>
+      <c r="M246" s="19"/>
       <c r="N246" s="19"/>
     </row>
     <row r="247" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -12601,10 +12620,10 @@
       </c>
       <c r="C247" s="17"/>
       <c r="D247" s="32" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E247" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F247" s="32" t="s">
         <v>811</v>
@@ -12615,9 +12634,9 @@
       <c r="H247" s="17"/>
       <c r="I247" s="19"/>
       <c r="J247" s="19"/>
-      <c r="K247" s="21"/>
+      <c r="K247" s="19"/>
       <c r="L247" s="21"/>
-      <c r="M247" s="45"/>
+      <c r="M247" s="19"/>
       <c r="N247" s="19"/>
     </row>
     <row r="248" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -12629,10 +12648,10 @@
       </c>
       <c r="C248" s="17"/>
       <c r="D248" s="32" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E248" s="32" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F248" s="32" t="s">
         <v>812</v>
@@ -12657,10 +12676,10 @@
       </c>
       <c r="C249" s="17"/>
       <c r="D249" s="32" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E249" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F249" s="32" t="s">
         <v>811</v>
@@ -12685,10 +12704,10 @@
       </c>
       <c r="C250" s="17"/>
       <c r="D250" s="32" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F250" s="32" t="s">
         <v>812</v>
@@ -12713,10 +12732,10 @@
       </c>
       <c r="C251" s="17"/>
       <c r="D251" s="32" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E251" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F251" s="32" t="s">
         <v>811</v>
@@ -12729,7 +12748,7 @@
       <c r="J251" s="19"/>
       <c r="K251" s="21"/>
       <c r="L251" s="21"/>
-      <c r="M251" s="19"/>
+      <c r="M251" s="45"/>
       <c r="N251" s="19"/>
     </row>
     <row r="252" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -12741,13 +12760,13 @@
       </c>
       <c r="C252" s="17"/>
       <c r="D252" s="32" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E252" s="32" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F252" s="32" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G252" s="38" t="s">
         <v>359</v>
@@ -12757,7 +12776,7 @@
       <c r="J252" s="19"/>
       <c r="K252" s="21"/>
       <c r="L252" s="21"/>
-      <c r="M252" s="19"/>
+      <c r="M252" s="45"/>
       <c r="N252" s="19"/>
     </row>
     <row r="253" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -12769,10 +12788,10 @@
       </c>
       <c r="C253" s="17"/>
       <c r="D253" s="32" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E253" s="32" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F253" s="32" t="s">
         <v>811</v>
@@ -12783,6 +12802,10 @@
       <c r="H253" s="17"/>
       <c r="I253" s="19"/>
       <c r="J253" s="19"/>
+      <c r="K253" s="21"/>
+      <c r="L253" s="21"/>
+      <c r="M253" s="19"/>
+      <c r="N253" s="19"/>
     </row>
     <row r="254" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="52" t="s">
@@ -12793,10 +12816,10 @@
       </c>
       <c r="C254" s="17"/>
       <c r="D254" s="32" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E254" s="32" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F254" s="32" t="s">
         <v>811</v>
@@ -12813,70 +12836,58 @@
       <c r="N254" s="19"/>
     </row>
     <row r="255" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="51" t="s">
+      <c r="A255" s="52" t="s">
         <v>224</v>
       </c>
       <c r="B255" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C255" s="17"/>
-      <c r="D255" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="E255" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="F255" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="G255" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="H255" s="18" t="s">
-        <v>590</v>
-      </c>
+      <c r="D255" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="E255" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="F255" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="G255" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="H255" s="17"/>
       <c r="I255" s="19"/>
       <c r="J255" s="19"/>
-      <c r="K255" s="21" t="s">
-        <v>1005</v>
-      </c>
-      <c r="L255" s="21"/>
-      <c r="M255" s="19"/>
-      <c r="N255" s="19"/>
     </row>
     <row r="256" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="51" t="s">
+      <c r="A256" s="52" t="s">
         <v>224</v>
       </c>
       <c r="B256" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C256" s="17"/>
-      <c r="D256" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="E256" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="F256" s="33" t="s">
-        <v>812</v>
-      </c>
-      <c r="G256" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="H256" s="18" t="s">
-        <v>590</v>
-      </c>
+      <c r="D256" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="E256" s="32" t="s">
+        <v>751</v>
+      </c>
+      <c r="F256" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="G256" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="H256" s="17"/>
       <c r="I256" s="19"/>
       <c r="J256" s="19"/>
-      <c r="K256" s="21" t="s">
-        <v>1005</v>
-      </c>
+      <c r="K256" s="21"/>
       <c r="L256" s="21"/>
       <c r="M256" s="19"/>
       <c r="N256" s="19"/>
     </row>
-    <row r="257" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="51" t="s">
         <v>224</v>
       </c>
@@ -12884,78 +12895,89 @@
         <v>197</v>
       </c>
       <c r="C257" s="17"/>
-      <c r="D257" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="E257" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="F257" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G257" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="H257" s="37" t="s">
-        <v>523</v>
+      <c r="D257" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="E257" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="F257" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="G257" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="H257" s="18" t="s">
+        <v>590</v>
       </c>
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
-    </row>
-    <row r="258" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="B258" s="24" t="s">
+      <c r="K257" s="21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L257" s="21"/>
+      <c r="M257" s="19"/>
+      <c r="N257" s="19"/>
+    </row>
+    <row r="258" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B258" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C258" s="24"/>
-      <c r="D258" s="29" t="s">
-        <v>964</v>
-      </c>
-      <c r="E258" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="F258" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="G258" s="48" t="s">
+      <c r="C258" s="17"/>
+      <c r="D258" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="E258" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="F258" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="G258" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="H258" s="24" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I258" s="26"/>
-      <c r="J258" s="26"/>
-      <c r="K258" s="27" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="B259" s="24" t="s">
+      <c r="H258" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="I258" s="19"/>
+      <c r="J258" s="19"/>
+      <c r="K258" s="21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L258" s="21"/>
+      <c r="M258" s="19"/>
+      <c r="N258" s="19"/>
+    </row>
+    <row r="259" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B259" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C259" s="24"/>
-      <c r="D259" s="29" t="s">
-        <v>965</v>
-      </c>
-      <c r="E259" s="29" t="s">
-        <v>759</v>
-      </c>
-      <c r="F259" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="G259" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="H259" s="24"/>
-      <c r="I259" s="26"/>
-      <c r="J259" s="26"/>
-    </row>
-    <row r="260" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C259" s="17"/>
+      <c r="D259" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="E259" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="F259" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G259" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H259" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="I259" s="19"/>
+      <c r="J259" s="19"/>
+    </row>
+    <row r="260" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="24" t="s">
         <v>602</v>
       </c>
@@ -12964,10 +12986,10 @@
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="29" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E260" s="29" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F260" s="29" t="s">
         <v>811</v>
@@ -12975,11 +12997,16 @@
       <c r="G260" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="H260" s="24"/>
+      <c r="H260" s="24" t="s">
+        <v>1006</v>
+      </c>
       <c r="I260" s="26"/>
       <c r="J260" s="26"/>
-    </row>
-    <row r="261" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K260" s="27" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="24" t="s">
         <v>602</v>
       </c>
@@ -12988,13 +13015,13 @@
       </c>
       <c r="C261" s="24"/>
       <c r="D261" s="29" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E261" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F261" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G261" s="48" t="s">
         <v>387</v>
@@ -13003,7 +13030,7 @@
       <c r="I261" s="26"/>
       <c r="J261" s="26"/>
     </row>
-    <row r="262" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="24" t="s">
         <v>602</v>
       </c>
@@ -13012,10 +13039,10 @@
       </c>
       <c r="C262" s="24"/>
       <c r="D262" s="29" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E262" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F262" s="29" t="s">
         <v>811</v>
@@ -13027,7 +13054,7 @@
       <c r="I262" s="26"/>
       <c r="J262" s="26"/>
     </row>
-    <row r="263" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="24" t="s">
         <v>602</v>
       </c>
@@ -13036,13 +13063,13 @@
       </c>
       <c r="C263" s="24"/>
       <c r="D263" s="29" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E263" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F263" s="29" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G263" s="48" t="s">
         <v>387</v>
@@ -13051,7 +13078,7 @@
       <c r="I263" s="26"/>
       <c r="J263" s="26"/>
     </row>
-    <row r="264" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="24" t="s">
         <v>602</v>
       </c>
@@ -13060,10 +13087,10 @@
       </c>
       <c r="C264" s="24"/>
       <c r="D264" s="29" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E264" s="29" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F264" s="29" t="s">
         <v>811</v>
@@ -13075,7 +13102,7 @@
       <c r="I264" s="26"/>
       <c r="J264" s="26"/>
     </row>
-    <row r="265" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="24" t="s">
         <v>602</v>
       </c>
@@ -13084,13 +13111,13 @@
       </c>
       <c r="C265" s="24"/>
       <c r="D265" s="29" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E265" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F265" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G265" s="48" t="s">
         <v>387</v>
@@ -13099,7 +13126,7 @@
       <c r="I265" s="26"/>
       <c r="J265" s="26"/>
     </row>
-    <row r="266" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="24" t="s">
         <v>602</v>
       </c>
@@ -13107,13 +13134,13 @@
         <v>197</v>
       </c>
       <c r="C266" s="24"/>
-      <c r="D266" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="E266" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="F266" s="24" t="s">
+      <c r="D266" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="E266" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="F266" s="29" t="s">
         <v>811</v>
       </c>
       <c r="G266" s="48" t="s">
@@ -13123,7 +13150,7 @@
       <c r="I266" s="26"/>
       <c r="J266" s="26"/>
     </row>
-    <row r="267" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="24" t="s">
         <v>602</v>
       </c>
@@ -13131,13 +13158,13 @@
         <v>197</v>
       </c>
       <c r="C267" s="24"/>
-      <c r="D267" s="24" t="s">
-        <v>973</v>
-      </c>
-      <c r="E267" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="F267" s="24" t="s">
+      <c r="D267" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="E267" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="F267" s="29" t="s">
         <v>812</v>
       </c>
       <c r="G267" s="48" t="s">
@@ -13147,7 +13174,7 @@
       <c r="I267" s="26"/>
       <c r="J267" s="26"/>
     </row>
-    <row r="268" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="24" t="s">
         <v>602</v>
       </c>
@@ -13155,13 +13182,13 @@
         <v>197</v>
       </c>
       <c r="C268" s="24"/>
-      <c r="D268" s="29" t="s">
-        <v>974</v>
-      </c>
-      <c r="E268" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="F268" s="29" t="s">
+      <c r="D268" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="E268" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="F268" s="24" t="s">
         <v>811</v>
       </c>
       <c r="G268" s="48" t="s">
@@ -13171,59 +13198,55 @@
       <c r="I268" s="26"/>
       <c r="J268" s="26"/>
     </row>
-    <row r="269" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="B269" s="33" t="s">
+    <row r="269" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="B269" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C269" s="33"/>
-      <c r="D269" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="E269" s="46" t="s">
-        <v>785</v>
-      </c>
-      <c r="F269" s="46" t="s">
-        <v>811</v>
-      </c>
-      <c r="G269" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="H269" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="I269" s="19"/>
-      <c r="J269" s="19"/>
-    </row>
-    <row r="270" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="B270" s="33" t="s">
+      <c r="C269" s="24"/>
+      <c r="D269" s="24" t="s">
+        <v>973</v>
+      </c>
+      <c r="E269" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="F269" s="24" t="s">
+        <v>812</v>
+      </c>
+      <c r="G269" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="H269" s="24"/>
+      <c r="I269" s="26"/>
+      <c r="J269" s="26"/>
+    </row>
+    <row r="270" spans="1:14" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="B270" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C270" s="33"/>
-      <c r="D270" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="E270" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="F270" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G270" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="H270" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="I270" s="19"/>
-      <c r="J270" s="19"/>
-    </row>
-    <row r="271" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C270" s="24"/>
+      <c r="D270" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="E270" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="F270" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="G270" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="H270" s="24"/>
+      <c r="I270" s="26"/>
+      <c r="J270" s="26"/>
+    </row>
+    <row r="271" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="50" t="s">
         <v>236</v>
       </c>
@@ -13231,25 +13254,25 @@
         <v>197</v>
       </c>
       <c r="C271" s="33"/>
-      <c r="D271" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="E271" s="33" t="s">
-        <v>787</v>
-      </c>
-      <c r="F271" s="33" t="s">
+      <c r="D271" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="E271" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="F271" s="46" t="s">
         <v>811</v>
       </c>
       <c r="G271" s="46" t="s">
         <v>371</v>
       </c>
       <c r="H271" s="37" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I271" s="19"/>
       <c r="J271" s="19"/>
     </row>
-    <row r="272" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="50" t="s">
         <v>236</v>
       </c>
@@ -13257,20 +13280,20 @@
         <v>197</v>
       </c>
       <c r="C272" s="33"/>
-      <c r="D272" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="E272" s="33" t="s">
-        <v>788</v>
-      </c>
-      <c r="F272" s="33" t="s">
+      <c r="D272" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E272" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="F272" s="17" t="s">
         <v>811</v>
       </c>
       <c r="G272" s="46" t="s">
         <v>371</v>
       </c>
       <c r="H272" s="37" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I272" s="19"/>
       <c r="J272" s="19"/>
@@ -13284,10 +13307,10 @@
       </c>
       <c r="C273" s="33"/>
       <c r="D273" s="33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E273" s="33" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F273" s="33" t="s">
         <v>811</v>
@@ -13296,7 +13319,7 @@
         <v>371</v>
       </c>
       <c r="H273" s="37" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I273" s="19"/>
       <c r="J273" s="19"/>
@@ -13310,10 +13333,10 @@
       </c>
       <c r="C274" s="33"/>
       <c r="D274" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E274" s="33" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F274" s="33" t="s">
         <v>811</v>
@@ -13322,7 +13345,7 @@
         <v>371</v>
       </c>
       <c r="H274" s="37" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I274" s="19"/>
       <c r="J274" s="19"/>
@@ -13336,10 +13359,10 @@
       </c>
       <c r="C275" s="33"/>
       <c r="D275" s="33" t="s">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="E275" s="33" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F275" s="33" t="s">
         <v>811</v>
@@ -13348,7 +13371,7 @@
         <v>371</v>
       </c>
       <c r="H275" s="37" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I275" s="19"/>
       <c r="J275" s="19"/>
@@ -13362,10 +13385,10 @@
       </c>
       <c r="C276" s="33"/>
       <c r="D276" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E276" s="33" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F276" s="33" t="s">
         <v>811</v>
@@ -13374,7 +13397,7 @@
         <v>371</v>
       </c>
       <c r="H276" s="37" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I276" s="19"/>
       <c r="J276" s="19"/>
@@ -13388,10 +13411,10 @@
       </c>
       <c r="C277" s="33"/>
       <c r="D277" s="33" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="E277" s="33" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F277" s="33" t="s">
         <v>811</v>
@@ -13400,7 +13423,7 @@
         <v>371</v>
       </c>
       <c r="H277" s="37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I277" s="19"/>
       <c r="J277" s="19"/>
@@ -13414,10 +13437,10 @@
       </c>
       <c r="C278" s="33"/>
       <c r="D278" s="33" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E278" s="33" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F278" s="33" t="s">
         <v>811</v>
@@ -13426,7 +13449,7 @@
         <v>371</v>
       </c>
       <c r="H278" s="37" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I278" s="19"/>
       <c r="J278" s="19"/>
@@ -13439,20 +13462,20 @@
         <v>197</v>
       </c>
       <c r="C279" s="33"/>
-      <c r="D279" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="E279" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="F279" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G279" s="33" t="s">
+      <c r="D279" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="E279" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="F279" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="G279" s="46" t="s">
         <v>371</v>
       </c>
       <c r="H279" s="37" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="I279" s="19"/>
       <c r="J279" s="19"/>
@@ -13465,20 +13488,20 @@
         <v>197</v>
       </c>
       <c r="C280" s="33"/>
-      <c r="D280" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="E280" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="F280" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G280" s="33" t="s">
+      <c r="D280" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="E280" s="33" t="s">
+        <v>794</v>
+      </c>
+      <c r="F280" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="G280" s="46" t="s">
         <v>371</v>
       </c>
       <c r="H280" s="37" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="I280" s="19"/>
       <c r="J280" s="19"/>
@@ -13492,10 +13515,10 @@
       </c>
       <c r="C281" s="33"/>
       <c r="D281" s="17" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F281" s="17" t="s">
         <v>811</v>
@@ -13503,8 +13526,8 @@
       <c r="G281" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H281" s="33" t="s">
-        <v>594</v>
+      <c r="H281" s="37" t="s">
+        <v>555</v>
       </c>
       <c r="I281" s="19"/>
       <c r="J281" s="19"/>
@@ -13518,10 +13541,10 @@
       </c>
       <c r="C282" s="33"/>
       <c r="D282" s="17" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="E282" s="17" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F282" s="17" t="s">
         <v>811</v>
@@ -13529,7 +13552,9 @@
       <c r="G282" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H282" s="33"/>
+      <c r="H282" s="37" t="s">
+        <v>555</v>
+      </c>
       <c r="I282" s="19"/>
       <c r="J282" s="19"/>
     </row>
@@ -13542,10 +13567,10 @@
       </c>
       <c r="C283" s="33"/>
       <c r="D283" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E283" s="17" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F283" s="17" t="s">
         <v>811</v>
@@ -13553,7 +13578,9 @@
       <c r="G283" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="H283" s="33"/>
+      <c r="H283" s="33" t="s">
+        <v>594</v>
+      </c>
       <c r="I283" s="19"/>
       <c r="J283" s="19"/>
     </row>
@@ -13565,16 +13592,16 @@
         <v>197</v>
       </c>
       <c r="C284" s="33"/>
-      <c r="D284" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="E284" s="33" t="s">
-        <v>802</v>
-      </c>
-      <c r="F284" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="G284" s="46" t="s">
+      <c r="D284" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="E284" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="F284" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G284" s="33" t="s">
         <v>371</v>
       </c>
       <c r="H284" s="33"/>
@@ -13589,16 +13616,16 @@
         <v>197</v>
       </c>
       <c r="C285" s="33"/>
-      <c r="D285" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="E285" s="33" t="s">
-        <v>803</v>
-      </c>
-      <c r="F285" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="G285" s="46" t="s">
+      <c r="D285" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="E285" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="F285" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G285" s="33" t="s">
         <v>371</v>
       </c>
       <c r="H285" s="33"/>
@@ -13613,26 +13640,21 @@
         <v>197</v>
       </c>
       <c r="C286" s="33"/>
-      <c r="D286" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="E286" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="F286" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G286" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="H286" s="37" t="s">
-        <v>554</v>
-      </c>
+      <c r="D286" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="E286" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="F286" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="G286" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H286" s="33"/>
       <c r="I286" s="19"/>
       <c r="J286" s="19"/>
-      <c r="K286" s="4" t="s">
-        <v>1004</v>
-      </c>
     </row>
     <row r="287" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="50" t="s">
@@ -13642,130 +13664,128 @@
         <v>197</v>
       </c>
       <c r="C287" s="33"/>
-      <c r="D287" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="E287" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="F287" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G287" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="H287" s="18" t="s">
-        <v>554</v>
-      </c>
+      <c r="D287" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="E287" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="F287" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="G287" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H287" s="33"/>
       <c r="I287" s="19"/>
       <c r="J287" s="19"/>
     </row>
-    <row r="288" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="42" t="s">
+    <row r="288" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B288" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C288" s="33"/>
+      <c r="D288" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="E288" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="F288" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G288" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="H288" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="I288" s="19"/>
+      <c r="J288" s="19"/>
+      <c r="K288" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B289" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C289" s="33"/>
+      <c r="D289" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="E289" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="F289" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G289" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H289" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="I289" s="19"/>
+      <c r="J289" s="19"/>
+    </row>
+    <row r="290" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B288" s="23" t="s">
+      <c r="B290" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C288" s="23"/>
-      <c r="D288" s="30" t="s">
+      <c r="C290" s="23"/>
+      <c r="D290" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="E288" s="30" t="s">
+      <c r="E290" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="F288" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="G288" s="41" t="s">
+      <c r="F290" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="G290" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="H288" s="25" t="s">
+      <c r="H290" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="I288" s="26"/>
-      <c r="J288" s="26"/>
-    </row>
-    <row r="289" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="42" t="s">
+      <c r="I290" s="26"/>
+      <c r="J290" s="26"/>
+    </row>
+    <row r="291" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B289" s="23" t="s">
+      <c r="B291" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C289" s="23"/>
-      <c r="D289" s="23" t="s">
+      <c r="C291" s="23"/>
+      <c r="D291" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="E289" s="23" t="s">
+      <c r="E291" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="F289" s="23" t="s">
-        <v>811</v>
-      </c>
-      <c r="G289" s="41" t="s">
+      <c r="F291" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="G291" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="H289" s="25" t="s">
+      <c r="H291" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="I289" s="26"/>
-      <c r="J289" s="26"/>
-    </row>
-    <row r="290" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="B290" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="C290" s="33"/>
-      <c r="D290" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E290" s="33" t="s">
-        <v>809</v>
-      </c>
-      <c r="F290" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="G290" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="H290" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="I290" s="19"/>
-      <c r="J290" s="19"/>
-      <c r="K290" s="20" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="B291" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="C291" s="33"/>
-      <c r="D291" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="E291" s="33" t="s">
-        <v>809</v>
-      </c>
-      <c r="F291" s="33" t="s">
-        <v>812</v>
-      </c>
-      <c r="G291" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="H291" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="I291" s="19"/>
-      <c r="J291" s="19"/>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26"/>
     </row>
     <row r="292" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="50" t="s">
@@ -13776,22 +13796,25 @@
       </c>
       <c r="C292" s="33"/>
       <c r="D292" s="33" t="s">
-        <v>568</v>
+        <v>310</v>
       </c>
       <c r="E292" s="33" t="s">
         <v>809</v>
       </c>
       <c r="F292" s="33" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G292" s="44" t="s">
         <v>387</v>
       </c>
       <c r="H292" s="37" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I292" s="19"/>
       <c r="J292" s="19"/>
+      <c r="K292" s="20" t="s">
+        <v>1008</v>
+      </c>
     </row>
     <row r="293" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="50" t="s">
@@ -13802,19 +13825,19 @@
       </c>
       <c r="C293" s="33"/>
       <c r="D293" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E293" s="33" t="s">
         <v>809</v>
       </c>
       <c r="F293" s="33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G293" s="44" t="s">
         <v>387</v>
       </c>
       <c r="H293" s="37" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I293" s="19"/>
       <c r="J293" s="19"/>
@@ -13827,20 +13850,20 @@
         <v>986</v>
       </c>
       <c r="C294" s="33"/>
-      <c r="D294" s="49" t="s">
-        <v>570</v>
-      </c>
-      <c r="E294" s="49" t="s">
-        <v>808</v>
-      </c>
-      <c r="F294" s="49" t="s">
-        <v>811</v>
-      </c>
-      <c r="G294" s="40" t="s">
-        <v>390</v>
+      <c r="D294" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="E294" s="33" t="s">
+        <v>809</v>
+      </c>
+      <c r="F294" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="G294" s="44" t="s">
+        <v>387</v>
       </c>
       <c r="H294" s="37" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="I294" s="19"/>
       <c r="J294" s="19"/>
@@ -13854,118 +13877,126 @@
       </c>
       <c r="C295" s="33"/>
       <c r="D295" s="33" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E295" s="33" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F295" s="33" t="s">
-        <v>812</v>
-      </c>
-      <c r="G295" s="40" t="s">
-        <v>390</v>
+        <v>814</v>
+      </c>
+      <c r="G295" s="44" t="s">
+        <v>387</v>
       </c>
       <c r="H295" s="37" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="I295" s="19"/>
       <c r="J295" s="19"/>
     </row>
-    <row r="296" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="22" t="s">
+    <row r="296" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="B296" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="C296" s="33"/>
+      <c r="D296" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="E296" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="F296" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="G296" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H296" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="I296" s="19"/>
+      <c r="J296" s="19"/>
+    </row>
+    <row r="297" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="B297" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="C297" s="33"/>
+      <c r="D297" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="E297" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="F297" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="G297" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H297" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I297" s="19"/>
+      <c r="J297" s="19"/>
+    </row>
+    <row r="298" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="B296" s="23" t="s">
+      <c r="B298" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="C296" s="23"/>
-      <c r="D296" s="24" t="s">
+      <c r="C298" s="23"/>
+      <c r="D298" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="E296" s="24" t="s">
+      <c r="E298" s="24" t="s">
         <v>804</v>
       </c>
-      <c r="F296" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="G296" s="29" t="s">
+      <c r="F298" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="G298" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="H296" s="31" t="s">
+      <c r="H298" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="I296" s="26"/>
-      <c r="J296" s="26"/>
-    </row>
-    <row r="297" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="22" t="s">
+      <c r="I298" s="26"/>
+      <c r="J298" s="26"/>
+    </row>
+    <row r="299" spans="1:11" s="27" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="B297" s="23" t="s">
+      <c r="B299" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="C297" s="23"/>
-      <c r="D297" s="24" t="s">
+      <c r="C299" s="23"/>
+      <c r="D299" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="E297" s="24" t="s">
+      <c r="E299" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="F297" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="G297" s="29" t="s">
+      <c r="F299" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="G299" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="H297" s="31" t="s">
+      <c r="H299" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="I297" s="26"/>
-      <c r="J297" s="26"/>
-    </row>
-    <row r="298" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="32" t="s">
-        <v>829</v>
-      </c>
-      <c r="E298" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="F298" s="32" t="s">
-        <v>812</v>
-      </c>
-      <c r="G298" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="H298" s="17"/>
-      <c r="I298" s="19"/>
-      <c r="J298" s="19"/>
-    </row>
-    <row r="299" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="B299" s="15"/>
-      <c r="C299" s="15"/>
-      <c r="D299" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="E299" s="32" t="s">
-        <v>623</v>
-      </c>
-      <c r="F299" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="G299" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="H299" s="17"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="19"/>
+      <c r="I299" s="26"/>
+      <c r="J299" s="26"/>
     </row>
     <row r="300" spans="1:11" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="17" t="s">
@@ -13974,10 +14005,10 @@
       <c r="B300" s="15"/>
       <c r="C300" s="15"/>
       <c r="D300" s="32" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E300" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F300" s="32" t="s">
         <v>812</v>
@@ -13996,10 +14027,10 @@
       <c r="B301" s="15"/>
       <c r="C301" s="15"/>
       <c r="D301" s="32" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E301" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F301" s="32" t="s">
         <v>814</v>
@@ -14018,13 +14049,13 @@
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
       <c r="D302" s="32" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E302" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F302" s="32" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G302" s="40" t="s">
         <v>390</v>
@@ -14040,13 +14071,13 @@
       <c r="B303" s="15"/>
       <c r="C303" s="15"/>
       <c r="D303" s="32" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E303" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F303" s="32" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G303" s="40" t="s">
         <v>390</v>
@@ -14062,13 +14093,13 @@
       <c r="B304" s="15"/>
       <c r="C304" s="15"/>
       <c r="D304" s="32" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E304" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F304" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G304" s="40" t="s">
         <v>390</v>
@@ -14077,38 +14108,82 @@
       <c r="I304" s="19"/>
       <c r="J304" s="19"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="B305" s="15"/>
+      <c r="C305" s="15"/>
+      <c r="D305" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="E305" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="F305" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="G305" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H305" s="17"/>
+      <c r="I305" s="19"/>
+      <c r="J305" s="19"/>
+    </row>
+    <row r="306" spans="1:10" s="20" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="B306" s="15"/>
+      <c r="C306" s="15"/>
+      <c r="D306" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="E306" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="F306" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="G306" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H306" s="17"/>
+      <c r="I306" s="19"/>
+      <c r="J306" s="19"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A307" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B305" s="33" t="s">
+      <c r="B307" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C305" s="33"/>
-      <c r="D305" s="17" t="s">
+      <c r="C307" s="33"/>
+      <c r="D307" s="17" t="s">
         <v>1016</v>
       </c>
-      <c r="E305" s="17" t="s">
+      <c r="E307" s="17" t="s">
         <v>1017</v>
       </c>
-      <c r="F305" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G305" s="40" t="s">
+      <c r="F307" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="G307" s="40" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" s="17" t="s">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308" s="17" t="s">
         <v>596</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H304">
-    <sortCondition ref="B2:B304"/>
-    <sortCondition ref="A2:A304"/>
-    <sortCondition ref="G2:G304" customList="outward open,outward occluded,inward occluded,inward open"/>
-    <sortCondition ref="D2:D304"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H306">
+    <sortCondition ref="B2:B306"/>
+    <sortCondition ref="A2:A306"/>
+    <sortCondition ref="G2:G306" customList="outward open,outward occluded,inward occluded,inward open"/>
+    <sortCondition ref="D2:D306"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14151,14 +14226,14 @@
     <hyperlink ref="H124" r:id="rId37" xr:uid="{2AA4D7FC-3D3C-2B4D-8F13-074352A8F3AE}"/>
     <hyperlink ref="H120" r:id="rId38" xr:uid="{F3DF28E0-C7FB-FC48-B798-0C18070D8818}"/>
     <hyperlink ref="H119" r:id="rId39" xr:uid="{D7CA909D-78A5-0942-A997-E7AB594A8277}"/>
-    <hyperlink ref="H137" r:id="rId40" xr:uid="{C85EFD85-405B-4044-B03D-AAC931F442C1}"/>
-    <hyperlink ref="H139" r:id="rId41" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{634DF9BF-359E-1840-B730-520D690D575C}"/>
-    <hyperlink ref="H142" r:id="rId42" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{CFEEA7B5-3DF7-0044-BFAA-2501D812D717}"/>
-    <hyperlink ref="H144" r:id="rId43" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{8B1881DC-C2F0-1D44-9CD3-C84CAB4D62C2}"/>
-    <hyperlink ref="H140" r:id="rId44" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{80CFD625-2663-5B41-B4CB-ADBEF6C69513}"/>
-    <hyperlink ref="H143" r:id="rId45" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{925603BC-D6F6-604B-8AC0-EC076753D175}"/>
-    <hyperlink ref="H145" r:id="rId46" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{D64CB40A-4EF4-DE40-86D0-FC7B370A2BA5}"/>
-    <hyperlink ref="H138" r:id="rId47" xr:uid="{F600AEA7-B2C3-3640-8927-9A084832B88C}"/>
+    <hyperlink ref="H138" r:id="rId40" xr:uid="{C85EFD85-405B-4044-B03D-AAC931F442C1}"/>
+    <hyperlink ref="H140" r:id="rId41" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{634DF9BF-359E-1840-B730-520D690D575C}"/>
+    <hyperlink ref="H143" r:id="rId42" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{CFEEA7B5-3DF7-0044-BFAA-2501D812D717}"/>
+    <hyperlink ref="H145" r:id="rId43" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{8B1881DC-C2F0-1D44-9CD3-C84CAB4D62C2}"/>
+    <hyperlink ref="H141" r:id="rId44" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{80CFD625-2663-5B41-B4CB-ADBEF6C69513}"/>
+    <hyperlink ref="H144" r:id="rId45" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{925603BC-D6F6-604B-8AC0-EC076753D175}"/>
+    <hyperlink ref="H146" r:id="rId46" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nsmb.2904" xr:uid="{D64CB40A-4EF4-DE40-86D0-FC7B370A2BA5}"/>
+    <hyperlink ref="H139" r:id="rId47" xr:uid="{F600AEA7-B2C3-3640-8927-9A084832B88C}"/>
     <hyperlink ref="H129" r:id="rId48" xr:uid="{A2A978CD-0300-0F4B-8D3A-F05E01781EC6}"/>
     <hyperlink ref="H130" r:id="rId49" xr:uid="{5E70C3B4-05F6-6043-A92D-B9F82B6D8AA1}"/>
     <hyperlink ref="H125" r:id="rId50" xr:uid="{4BBCD602-8589-4044-809B-76661325E4D3}"/>
@@ -14166,58 +14241,58 @@
     <hyperlink ref="H131" r:id="rId52" xr:uid="{551E36FD-4984-1A47-9E97-0C7FF8F76B4C}"/>
     <hyperlink ref="H133" r:id="rId53" xr:uid="{CA594820-AE5C-D64B-A68C-48EE4D47FBFB}"/>
     <hyperlink ref="H134" r:id="rId54" xr:uid="{453D482D-F262-9043-B11F-F22DA85E3BD2}"/>
-    <hyperlink ref="H141" r:id="rId55" xr:uid="{4C16CBC3-6759-A449-BF40-CC615765ACFB}"/>
-    <hyperlink ref="H146" r:id="rId56" xr:uid="{7E7F956E-2197-214C-9FBE-85A079B97D90}"/>
-    <hyperlink ref="H288" r:id="rId57" xr:uid="{5FA62CF0-9627-C24C-B103-199C7530D37D}"/>
-    <hyperlink ref="H289" r:id="rId58" xr:uid="{F5C3F2F4-B38A-3046-8BFA-8052E70E0AC6}"/>
-    <hyperlink ref="H153" r:id="rId59" xr:uid="{12F1A549-608E-784B-8112-A190D734C745}"/>
-    <hyperlink ref="H154" r:id="rId60" xr:uid="{4044423C-4815-6B40-A2BB-4371191D0FF3}"/>
-    <hyperlink ref="H155" r:id="rId61" xr:uid="{36659EA0-196C-EC49-BD36-3D3ADAFEA26A}"/>
-    <hyperlink ref="H158" r:id="rId62" xr:uid="{769445F1-8C8A-EB49-88DD-540161CAEB98}"/>
-    <hyperlink ref="H242" r:id="rId63" xr:uid="{5C7C2AFA-5CBA-6344-996A-B147198C9B0C}"/>
-    <hyperlink ref="H200" r:id="rId64" xr:uid="{0ED6510E-A183-9F46-A6F2-612EF2C60E63}"/>
-    <hyperlink ref="H220" r:id="rId65" xr:uid="{B41FD41B-FB9B-0A4B-BD9C-9BD27F4FEDA9}"/>
-    <hyperlink ref="H221" r:id="rId66" xr:uid="{EF09FEA3-7DC7-4B48-8853-9487147E0E13}"/>
-    <hyperlink ref="H176" r:id="rId67" xr:uid="{5E1D129E-015D-6C4F-9C4A-478576D8D53F}"/>
-    <hyperlink ref="H177" r:id="rId68" xr:uid="{124D6075-F0D9-E845-BE79-DE0C14FA0505}"/>
-    <hyperlink ref="H257" r:id="rId69" xr:uid="{683746E3-55A8-7C49-9F89-85C24048C63B}"/>
-    <hyperlink ref="H237" r:id="rId70" xr:uid="{E75D0BE4-B44C-8944-8FF4-E832A52D8DEA}"/>
-    <hyperlink ref="H223" r:id="rId71" xr:uid="{E7E00222-4536-4A42-9E18-70B02637795A}"/>
-    <hyperlink ref="H286" r:id="rId72" xr:uid="{E6277ED5-5FFD-DE45-995B-8C681A6CDDB4}"/>
-    <hyperlink ref="H279" r:id="rId73" xr:uid="{D6F7B6E1-FE06-6243-894A-7CA6A22B3175}"/>
-    <hyperlink ref="H280" r:id="rId74" xr:uid="{06622973-BFBE-D94C-9D5E-EB1F8143DA4C}"/>
-    <hyperlink ref="H287" r:id="rId75" xr:uid="{8604E62B-C135-9640-AD2F-4D9B45378BC8}"/>
-    <hyperlink ref="H269" r:id="rId76" xr:uid="{1BEC61A8-B3E0-9E44-9FA6-4CA061823E24}"/>
-    <hyperlink ref="H185:H189" r:id="rId77" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nature17629" xr:uid="{2C33EBE4-5BA6-8D42-8BA7-604FD3197363}"/>
-    <hyperlink ref="H275" r:id="rId78" xr:uid="{48307544-F890-DB47-964B-7E05ED296DB7}"/>
-    <hyperlink ref="H191:H193" r:id="rId79" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/s41594-018-0026-8" xr:uid="{73398162-3B29-A347-BEC2-E6449CB6EF73}"/>
-    <hyperlink ref="H294" r:id="rId80" xr:uid="{2D3FC870-862D-BB42-84D9-356855D813EA}"/>
-    <hyperlink ref="H290" r:id="rId81" xr:uid="{E889A9B5-904F-4242-BF63-F4ABB8EDDAFB}"/>
-    <hyperlink ref="H296" r:id="rId82" xr:uid="{0D4FADB1-94BD-8C43-8705-91BD4395F48B}"/>
-    <hyperlink ref="H297" r:id="rId83" xr:uid="{DC28E9F8-974F-544D-B46E-B54823DAC8E6}"/>
-    <hyperlink ref="H202" r:id="rId84" xr:uid="{89641F6E-094A-B14D-86FA-F5AB547E809D}"/>
-    <hyperlink ref="H201" r:id="rId85" xr:uid="{258F8E6B-E482-7841-AB1F-13F0D5E82407}"/>
-    <hyperlink ref="H203" r:id="rId86" xr:uid="{6CC502B1-3C09-8444-9967-954F22549D46}"/>
-    <hyperlink ref="H204" r:id="rId87" xr:uid="{4E59982F-D06D-0E41-B3D3-21ED3AE8545F}"/>
+    <hyperlink ref="H142" r:id="rId55" xr:uid="{4C16CBC3-6759-A449-BF40-CC615765ACFB}"/>
+    <hyperlink ref="H148" r:id="rId56" xr:uid="{7E7F956E-2197-214C-9FBE-85A079B97D90}"/>
+    <hyperlink ref="H290" r:id="rId57" xr:uid="{5FA62CF0-9627-C24C-B103-199C7530D37D}"/>
+    <hyperlink ref="H291" r:id="rId58" xr:uid="{F5C3F2F4-B38A-3046-8BFA-8052E70E0AC6}"/>
+    <hyperlink ref="H155" r:id="rId59" xr:uid="{12F1A549-608E-784B-8112-A190D734C745}"/>
+    <hyperlink ref="H156" r:id="rId60" xr:uid="{4044423C-4815-6B40-A2BB-4371191D0FF3}"/>
+    <hyperlink ref="H157" r:id="rId61" xr:uid="{36659EA0-196C-EC49-BD36-3D3ADAFEA26A}"/>
+    <hyperlink ref="H160" r:id="rId62" xr:uid="{769445F1-8C8A-EB49-88DD-540161CAEB98}"/>
+    <hyperlink ref="H244" r:id="rId63" xr:uid="{5C7C2AFA-5CBA-6344-996A-B147198C9B0C}"/>
+    <hyperlink ref="H202" r:id="rId64" xr:uid="{0ED6510E-A183-9F46-A6F2-612EF2C60E63}"/>
+    <hyperlink ref="H222" r:id="rId65" xr:uid="{B41FD41B-FB9B-0A4B-BD9C-9BD27F4FEDA9}"/>
+    <hyperlink ref="H223" r:id="rId66" xr:uid="{EF09FEA3-7DC7-4B48-8853-9487147E0E13}"/>
+    <hyperlink ref="H178" r:id="rId67" xr:uid="{5E1D129E-015D-6C4F-9C4A-478576D8D53F}"/>
+    <hyperlink ref="H179" r:id="rId68" xr:uid="{124D6075-F0D9-E845-BE79-DE0C14FA0505}"/>
+    <hyperlink ref="H259" r:id="rId69" xr:uid="{683746E3-55A8-7C49-9F89-85C24048C63B}"/>
+    <hyperlink ref="H239" r:id="rId70" xr:uid="{E75D0BE4-B44C-8944-8FF4-E832A52D8DEA}"/>
+    <hyperlink ref="H225" r:id="rId71" xr:uid="{E7E00222-4536-4A42-9E18-70B02637795A}"/>
+    <hyperlink ref="H288" r:id="rId72" xr:uid="{E6277ED5-5FFD-DE45-995B-8C681A6CDDB4}"/>
+    <hyperlink ref="H281" r:id="rId73" xr:uid="{D6F7B6E1-FE06-6243-894A-7CA6A22B3175}"/>
+    <hyperlink ref="H282" r:id="rId74" xr:uid="{06622973-BFBE-D94C-9D5E-EB1F8143DA4C}"/>
+    <hyperlink ref="H289" r:id="rId75" xr:uid="{8604E62B-C135-9640-AD2F-4D9B45378BC8}"/>
+    <hyperlink ref="H271" r:id="rId76" xr:uid="{1BEC61A8-B3E0-9E44-9FA6-4CA061823E24}"/>
+    <hyperlink ref="H187:H191" r:id="rId77" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/nature17629" xr:uid="{2C33EBE4-5BA6-8D42-8BA7-604FD3197363}"/>
+    <hyperlink ref="H277" r:id="rId78" xr:uid="{48307544-F890-DB47-964B-7E05ED296DB7}"/>
+    <hyperlink ref="H193:H195" r:id="rId79" display="https://www-nature-com.ezp-prod1.hul.harvard.edu/articles/s41594-018-0026-8" xr:uid="{73398162-3B29-A347-BEC2-E6449CB6EF73}"/>
+    <hyperlink ref="H296" r:id="rId80" xr:uid="{2D3FC870-862D-BB42-84D9-356855D813EA}"/>
+    <hyperlink ref="H292" r:id="rId81" xr:uid="{E889A9B5-904F-4242-BF63-F4ABB8EDDAFB}"/>
+    <hyperlink ref="H298" r:id="rId82" xr:uid="{0D4FADB1-94BD-8C43-8705-91BD4395F48B}"/>
+    <hyperlink ref="H299" r:id="rId83" xr:uid="{DC28E9F8-974F-544D-B46E-B54823DAC8E6}"/>
+    <hyperlink ref="H204" r:id="rId84" xr:uid="{89641F6E-094A-B14D-86FA-F5AB547E809D}"/>
+    <hyperlink ref="H203" r:id="rId85" xr:uid="{258F8E6B-E482-7841-AB1F-13F0D5E82407}"/>
+    <hyperlink ref="H205" r:id="rId86" xr:uid="{6CC502B1-3C09-8444-9967-954F22549D46}"/>
+    <hyperlink ref="H206" r:id="rId87" xr:uid="{4E59982F-D06D-0E41-B3D3-21ED3AE8545F}"/>
     <hyperlink ref="H6" r:id="rId88" display="https://science-sciencemag-org.ezp-prod1.hul.harvard.edu/content/324/5934/1565/tab-figures-data" xr:uid="{87BEAF90-2245-5343-B6F3-F3DEE267686B}"/>
-    <hyperlink ref="H208:H212" r:id="rId89" display="https://science-sciencemag-org.ezp-prod1.hul.harvard.edu/content/324/5934/1565/tab-figures-data" xr:uid="{FF022AFE-61F4-2F46-B5BB-3C0DE39B1CE6}"/>
-    <hyperlink ref="H255" r:id="rId90" xr:uid="{114EE5CC-08AC-514E-9CEF-B05C4DF04490}"/>
-    <hyperlink ref="H256" r:id="rId91" xr:uid="{6A71200B-66FC-D94A-9835-A5510CD6ACA2}"/>
+    <hyperlink ref="H210:H214" r:id="rId89" display="https://science-sciencemag-org.ezp-prod1.hul.harvard.edu/content/324/5934/1565/tab-figures-data" xr:uid="{FF022AFE-61F4-2F46-B5BB-3C0DE39B1CE6}"/>
+    <hyperlink ref="H257" r:id="rId90" xr:uid="{114EE5CC-08AC-514E-9CEF-B05C4DF04490}"/>
+    <hyperlink ref="H258" r:id="rId91" xr:uid="{6A71200B-66FC-D94A-9835-A5510CD6ACA2}"/>
     <hyperlink ref="H45" r:id="rId92" xr:uid="{B62F46CA-24B2-2241-96C1-609BA0A93045}"/>
     <hyperlink ref="H46" r:id="rId93" xr:uid="{003F0DCF-EB08-624B-A07F-F5FD3E3AE7F3}"/>
     <hyperlink ref="H47" r:id="rId94" xr:uid="{68AE724C-B4C5-684B-8D81-F370311E917F}"/>
     <hyperlink ref="H113" r:id="rId95" xr:uid="{D32C7DD1-8541-4CBE-905F-40581B55F25F}"/>
     <hyperlink ref="H114" r:id="rId96" xr:uid="{7F105533-DD92-49D5-8BD5-521BE23E0CD0}"/>
-    <hyperlink ref="H199" r:id="rId97" xr:uid="{43B9FAFC-C298-42AE-9935-E683AF821989}"/>
-    <hyperlink ref="H198" r:id="rId98" xr:uid="{EB47B311-1B1A-4919-AB67-D52B2FA73739}"/>
-    <hyperlink ref="H197" r:id="rId99" xr:uid="{84DAE8BF-037D-4FD2-A87E-DB4265D5B0FA}"/>
-    <hyperlink ref="H196" r:id="rId100" xr:uid="{4914FCED-CED8-4917-BA8D-3FF93A36935C}"/>
-    <hyperlink ref="H147" r:id="rId101" xr:uid="{0F8C57E4-E1F1-4AB4-BB39-19D081117C28}"/>
-    <hyperlink ref="H148" r:id="rId102" xr:uid="{D01F455F-A3D0-442A-86CB-9EBEA3A8A206}"/>
-    <hyperlink ref="H149" r:id="rId103" xr:uid="{B271CA1F-DCBC-4029-9D1F-80CE14049793}"/>
-    <hyperlink ref="H150" r:id="rId104" xr:uid="{73E33D40-B5F7-4A0F-9AC8-A507B7A0A6C1}"/>
-    <hyperlink ref="H151" r:id="rId105" xr:uid="{AA01D4F9-83A5-4742-8A98-24FD4FEA61A6}"/>
-    <hyperlink ref="H152" r:id="rId106" xr:uid="{85D2E759-8310-4EA8-B944-A448F2C78B55}"/>
+    <hyperlink ref="H201" r:id="rId97" xr:uid="{43B9FAFC-C298-42AE-9935-E683AF821989}"/>
+    <hyperlink ref="H200" r:id="rId98" xr:uid="{EB47B311-1B1A-4919-AB67-D52B2FA73739}"/>
+    <hyperlink ref="H199" r:id="rId99" xr:uid="{84DAE8BF-037D-4FD2-A87E-DB4265D5B0FA}"/>
+    <hyperlink ref="H198" r:id="rId100" xr:uid="{4914FCED-CED8-4917-BA8D-3FF93A36935C}"/>
+    <hyperlink ref="H149" r:id="rId101" xr:uid="{0F8C57E4-E1F1-4AB4-BB39-19D081117C28}"/>
+    <hyperlink ref="H150" r:id="rId102" xr:uid="{D01F455F-A3D0-442A-86CB-9EBEA3A8A206}"/>
+    <hyperlink ref="H151" r:id="rId103" xr:uid="{B271CA1F-DCBC-4029-9D1F-80CE14049793}"/>
+    <hyperlink ref="H152" r:id="rId104" xr:uid="{73E33D40-B5F7-4A0F-9AC8-A507B7A0A6C1}"/>
+    <hyperlink ref="H153" r:id="rId105" xr:uid="{AA01D4F9-83A5-4742-8A98-24FD4FEA61A6}"/>
+    <hyperlink ref="H154" r:id="rId106" xr:uid="{85D2E759-8310-4EA8-B944-A448F2C78B55}"/>
     <hyperlink ref="H117" r:id="rId107" xr:uid="{4F514917-AA8F-2C41-9BC1-5CA4441F8792}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
